--- a/empinfo/SungGu.xlsx
+++ b/empinfo/SungGu.xlsx
@@ -453,45 +453,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>copier</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>blinder</t>
+          <t>heater</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>snack</t>
+          <t>telephone</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
